--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TU Delft\MSc 1\AE4441-16 Operations Optimisation\AE4441-16-Assignment-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7E525B-22EA-4604-AA7C-202E61FD24D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC7AFE4-0EC4-42EC-8C7E-1A9613F1D007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="754" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="28">
   <si>
     <t># aj[j], dj[j]                   : expected arrival/departure time of flight j</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>p6</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>p9</t>
   </si>
 </sst>
 </file>
@@ -442,7 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -577,7 +586,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,24 +736,448 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A078927E-BF04-41B5-9013-2626E2BEA512}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>142</v>
+      </c>
+      <c r="C2">
+        <v>142</v>
+      </c>
+      <c r="D2">
+        <v>142</v>
+      </c>
+      <c r="E2">
+        <v>142</v>
+      </c>
+      <c r="F2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3406FE74-C50D-46BD-89B4-553CFB177CB3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TU Delft\MSc 1\AE4441-16 Operations Optimisation\AE4441-16-Assignment-code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maris\Documents\GitHub\AE4316P Human Machine Systems\AE4441-16-Assignment-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC7AFE4-0EC4-42EC-8C7E-1A9613F1D007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF53E22-CA1A-44A7-A3E9-868E9208B38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="754" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="754" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,17 @@
     <sheet name="wa" sheetId="7" r:id="rId7"/>
     <sheet name="wd" sheetId="8" r:id="rId8"/>
     <sheet name="wt" sheetId="9" r:id="rId9"/>
+    <sheet name="ra" sheetId="10" r:id="rId10"/>
+    <sheet name="rd" sheetId="12" r:id="rId11"/>
+    <sheet name="rt" sheetId="13" r:id="rId12"/>
+    <sheet name="ca" sheetId="11" r:id="rId13"/>
+    <sheet name="cd" sheetId="14" r:id="rId14"/>
+    <sheet name="ct" sheetId="15" r:id="rId15"/>
+    <sheet name="gi" sheetId="16" r:id="rId16"/>
+    <sheet name="gS" sheetId="17" r:id="rId17"/>
+    <sheet name="fj" sheetId="18" r:id="rId18"/>
+    <sheet name="fS" sheetId="19" r:id="rId19"/>
+    <sheet name="Sheet12" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="28">
   <si>
     <t># aj[j], dj[j]                   : expected arrival/departure time of flight j</t>
   </si>
@@ -482,6 +493,896 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69372E1-C424-49F6-8A3A-5BAC0CE5B9C8}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>3.5</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>2.5</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>16.625</v>
+      </c>
+      <c r="D4">
+        <v>14.25</v>
+      </c>
+      <c r="E4">
+        <v>11.875</v>
+      </c>
+      <c r="F4">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <v>45.5</v>
+      </c>
+      <c r="D5">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>32.5</v>
+      </c>
+      <c r="F5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CADA1D1-DAAE-4092-9071-5F0BBC79653B}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>24.5</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>17.5</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60549384-CA05-4272-AA06-A45BA1778C41}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897EAC47-C6E4-49E0-8331-BDA8701D0E44}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CA4BB9-DB48-457C-99E6-C98D16666059}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF515048-77D7-488D-852A-F6086DB9A05C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73C937F-EB19-4E90-A5A2-843F870171BB}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6394E0-8922-4A17-9DFD-A9AF0EB5B9E7}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A86685-22F8-496C-AEA1-13B24BBB113E}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B4D2BB-7103-4AF3-8248-7F7E94B31278}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDDE452-A3CE-4478-A3B4-F2E523DA4FF4}">
   <dimension ref="A1:E2"/>
@@ -528,6 +1429,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA11B1A-95B9-4BE2-9E32-8EB9D804D9FD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -583,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024D6EA3-5CFF-49D2-8AA5-4F3A75CBFBB9}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,19 +1606,19 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -713,19 +1626,79 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -736,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A078927E-BF04-41B5-9013-2626E2BEA512}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,42 +1736,182 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>142</v>
+      </c>
+      <c r="C6">
+        <v>142</v>
+      </c>
+      <c r="D6">
+        <v>142</v>
+      </c>
+      <c r="E6">
+        <v>142</v>
+      </c>
+      <c r="F6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B3">
+      <c r="B7">
         <v>20</v>
       </c>
-      <c r="C3">
+      <c r="C7">
         <v>20</v>
       </c>
-      <c r="D3">
+      <c r="D7">
         <v>20</v>
       </c>
-      <c r="E3">
+      <c r="E7">
         <v>20</v>
       </c>
-      <c r="F3">
+      <c r="F7">
         <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -810,7 +1923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3406FE74-C50D-46BD-89B4-553CFB177CB3}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maris\Documents\GitHub\AE4316P Human Machine Systems\AE4441-16-Assignment-code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\AE4441-16-Assignment-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF53E22-CA1A-44A7-A3E9-868E9208B38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F374604F-AEBB-44B6-A6AA-6113E2A9835B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="754" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="754" firstSheet="4" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,9 @@
     <sheet name="gS" sheetId="17" r:id="rId17"/>
     <sheet name="fj" sheetId="18" r:id="rId18"/>
     <sheet name="fS" sheetId="19" r:id="rId19"/>
-    <sheet name="Sheet12" sheetId="20" r:id="rId20"/>
+    <sheet name="thetai" sheetId="20" r:id="rId20"/>
+    <sheet name="deltai" sheetId="21" r:id="rId21"/>
+    <sheet name="taui" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="28">
   <si>
     <t># aj[j], dj[j]                   : expected arrival/departure time of flight j</t>
   </si>
@@ -466,24 +468,24 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -501,9 +503,9 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -520,7 +522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -540,7 +542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -560,7 +562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -580,7 +582,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -600,7 +602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -620,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -640,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -660,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -713,9 +715,9 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -732,7 +734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -752,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -772,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -792,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -812,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -852,7 +854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -872,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -892,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -925,9 +927,9 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -944,7 +946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -964,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -984,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1004,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1024,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1044,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1064,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1084,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1104,7 +1106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1135,9 +1137,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1.2E-2</v>
       </c>
@@ -1155,9 +1157,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1.2E-2</v>
       </c>
@@ -1175,9 +1177,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1.2E-2</v>
       </c>
@@ -1195,9 +1197,9 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1214,7 +1216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1244,9 +1246,9 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1263,7 +1265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1293,9 +1295,9 @@
       <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1312,7 +1314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1338,13 +1340,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B4D2BB-7103-4AF3-8248-7F7E94B31278}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1361,7 +1363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1391,9 +1393,9 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1410,7 +1412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1435,12 +1437,118 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA11B1A-95B9-4BE2-9E32-8EB9D804D9FD}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1.6</v>
+      </c>
+      <c r="C2">
+        <v>1.2</v>
+      </c>
+      <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E21B2EE-AB9E-4139-9D86-9BEEF0A3BA79}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CDBA43-C340-4F39-8F7C-56EA4E127EAB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1453,9 +1561,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1472,7 +1580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>120</v>
       </c>
@@ -1502,9 +1610,9 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>18</v>
       </c>
@@ -1521,7 +1629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1541,7 +1649,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1561,7 +1669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1581,7 +1689,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1601,7 +1709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1621,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1641,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1661,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1681,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1715,9 +1823,9 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>18</v>
       </c>
@@ -1734,7 +1842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1754,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1774,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1794,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1814,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1834,7 +1942,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1854,7 +1962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1874,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1894,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1927,9 +2035,9 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1949,7 +2057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1969,7 +2077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1989,7 +2097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2009,7 +2117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2029,7 +2137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2049,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2069,7 +2177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2089,7 +2197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2109,7 +2217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2129,7 +2237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2149,7 +2257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2169,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2189,7 +2297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2209,7 +2317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2229,7 +2337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -2249,7 +2357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2269,7 +2377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2303,9 +2411,9 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2322,7 +2430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>180</v>
       </c>
@@ -2353,9 +2461,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2372,7 +2480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>50</v>
       </c>
@@ -2402,9 +2510,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -2421,7 +2529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2441,7 +2549,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2461,7 +2569,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2481,7 +2589,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2501,7 +2609,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\AE4441-16-Assignment-code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maris\Documents\GitHub\AE4316P Human Machine Systems\AE4441-16-Assignment-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F374604F-AEBB-44B6-A6AA-6113E2A9835B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF05DFFF-259B-4943-9018-25C2330403CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="754" firstSheet="4" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="754" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="wa" sheetId="7" r:id="rId7"/>
     <sheet name="wd" sheetId="8" r:id="rId8"/>
     <sheet name="wt" sheetId="9" r:id="rId9"/>
-    <sheet name="ra" sheetId="10" r:id="rId10"/>
-    <sheet name="rd" sheetId="12" r:id="rId11"/>
+    <sheet name="rd" sheetId="10" r:id="rId10"/>
+    <sheet name="ra" sheetId="12" r:id="rId11"/>
     <sheet name="rt" sheetId="13" r:id="rId12"/>
     <sheet name="ca" sheetId="11" r:id="rId13"/>
     <sheet name="cd" sheetId="14" r:id="rId14"/>
@@ -468,24 +468,24 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -503,9 +503,9 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -522,7 +522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -562,7 +562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -582,7 +582,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -602,7 +602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -715,9 +715,9 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -734,7 +734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -854,7 +854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -923,13 +923,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60549384-CA05-4272-AA06-A45BA1778C41}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -946,7 +946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1137,9 +1137,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1.2E-2</v>
       </c>
@@ -1157,9 +1157,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1.2E-2</v>
       </c>
@@ -1177,9 +1177,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1.2E-2</v>
       </c>
@@ -1197,9 +1197,9 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1246,9 +1246,9 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1295,9 +1295,9 @@
       <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1344,9 +1344,9 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1393,9 +1393,9 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1443,9 +1443,9 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1492,9 +1492,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1537,13 +1537,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CDBA43-C340-4F39-8F7C-56EA4E127EAB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>5</v>
       </c>
@@ -1561,9 +1561,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>120</v>
       </c>
@@ -1610,9 +1610,9 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>18</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1823,9 +1823,9 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>18</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2035,9 +2035,9 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2411,9 +2411,9 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>180</v>
       </c>
@@ -2461,9 +2461,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>50</v>
       </c>
@@ -2510,9 +2510,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maris\Documents\GitHub\AE4316P Human Machine Systems\AE4441-16-Assignment-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF05DFFF-259B-4943-9018-25C2330403CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33985D12-A28E-4FA0-8A3B-D0E1EF08178F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="754" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" tabRatio="754" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="aj" sheetId="2" r:id="rId2"/>
     <sheet name="dj" sheetId="3" r:id="rId3"/>
-    <sheet name="na" sheetId="4" r:id="rId4"/>
-    <sheet name="nd" sheetId="5" r:id="rId5"/>
+    <sheet name="nd" sheetId="4" r:id="rId4"/>
+    <sheet name="na" sheetId="5" r:id="rId5"/>
     <sheet name="nt" sheetId="6" r:id="rId6"/>
     <sheet name="wa" sheetId="7" r:id="rId7"/>
     <sheet name="wd" sheetId="8" r:id="rId8"/>
@@ -923,7 +923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60549384-CA05-4272-AA06-A45BA1778C41}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1606,7 +1606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024D6EA3-5CFF-49D2-8AA5-4F3A75CBFBB9}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
